--- a/medicine/Handicap/Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique/Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique.xlsx
+++ b/medicine/Handicap/Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique/Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Temple de la renommée de la Fondation canadienne des personnes ayant un handicap physique[1] (anglais: Canadian Disability Hall of Fame) est un temple de la renommée qui reconnaît des « Canadiens qui ont contribué de façon extraordinaire à enrichir la qualité de vie des personnes handicapées physiquement ».
-Il a été appelé le Temple de la renommée Terry Fox jusqu'en 2009, lorsque le nom a été changé en raison des objections de la famille de Terry Fox[2]. Il est géré par l'Association canadienne des paraplégiques. Fox était un militant pour la recherche contre le cancer qui a tenté une course à travers le Canada, surnommée Le Marathon de l’espoir.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Temple de la renommée de la Fondation canadienne des personnes ayant un handicap physique (anglais: Canadian Disability Hall of Fame) est un temple de la renommée qui reconnaît des « Canadiens qui ont contribué de façon extraordinaire à enrichir la qualité de vie des personnes handicapées physiquement ».
+Il a été appelé le Temple de la renommée Terry Fox jusqu'en 2009, lorsque le nom a été changé en raison des objections de la famille de Terry Fox. Il est géré par l'Association canadienne des paraplégiques. Fox était un militant pour la recherche contre le cancer qui a tenté une course à travers le Canada, surnommée Le Marathon de l’espoir.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,122 +526,1011 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1993
-Lieutenant-colonel E. A. Baker
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lieutenant-colonel E. A. Baker
 John Gibbons Counsell
 Rick Hansen
 Dr R. W. Jackson
 Margaret McLeod
-André Viger
-1994
-Arnold Boldt
+André Viger</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Arnold Boldt
 William Cameron
 Beryl Potter
-Robert L. Rumball
-1995
-Dr Bruce Halliday
+Robert L. Rumball</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dr Bruce Halliday
 Dr Albin T. Jousse
 Jeremy Rempel
-Mona Winberg
-1996
-Dr Arlette Lefebvre
+Mona Winberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dr Arlette Lefebvre
 Joanne Mucz
 Vicki Munro et Keith Munro
-Walter Wu
-1997
-Jeff Adams
+Walter Wu</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jeff Adams
 Alice Laine et Audrey Morrice
 David Onley
-Whipper Billy Watson
-1998
-Honorable Lincoln M. Alexander
+Whipper Billy Watson</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Honorable Lincoln M. Alexander
 Gary Birch, PhD
 Dr E. H. (Harry) Botterell
-Frank Bruno
-1999
-Clifford Chadderton
+Frank Bruno</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Clifford Chadderton
 Leslie Lam
 Pier Morten
-Allan Simpson
-2000
-Morris (Mickey) Milner
+Allan Simpson</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Morris (Mickey) Milner
 Eugene Reimer
 Sarah Thompson
-Sam Sullivan
-2001
-Amy Doofenbaker
+Sam Sullivan</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Amy Doofenbaker
 Ivy Granstrom
 Tom Hainey
-James MacDougall PhD
-2002
-Mae Brown et Joan Mactavish
+James MacDougall PhD</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mae Brown et Joan Mactavish
 Stephanie McClellan
 Jo-Anne Robinson
-Robert Steadward PhD
-2003
-Joanne Berdan (née Bouw)
+Robert Steadward PhD</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Joanne Berdan (née Bouw)
 Jack Donohue
 Brian Keown
-Dr Charles Tator
-2004
-Carlos Costa
+Dr Charles Tator</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Carlos Costa
 Johanna Johnson
 David Lepofsky
-Henry Wohler
-2005
-Peter Eriksson
+Henry Wohler</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Peter Eriksson
 Lucy &amp; Robert Fletcher
 Patrick Jarvis
-Chantal Petitclerc
-2006
-Michael Edgson
+Chantal Petitclerc</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Michael Edgson
 Jeneece Edroff
 Steven Fletcher
-June Hooper
-2007
-Elizabeth Grandbois, bâtisseur
+June Hooper</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Elizabeth Grandbois, bâtisseur
 Joanne Smith, achiever
-Lauren Woolstencroft, athlète
-2008
-Adrian Anantawan, achiever
+Lauren Woolstencroft, athlète</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Adrian Anantawan, achiever
 Linda Crabtree, achiever
 Dr Geoff Fernie, bâtisseur
-Daniel Westley, athlète
-2009
-Jeff Healey, achiever
+Daniel Westley, athlète</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Jeff Healey, achiever
 David Hingsburger, bâtisseur
 Diane Roy, athlète
-Jill Taylor et Gary Taylor, achievers
-2010
-Colette Bourgonje (en), athlète
-David Shannon (en), accomplissement
-2011
-Benoît Huot, athlète
-Brian McKeever et Robin McKeever, athlètes
-2012
-Tracey Ferguson (en), athlète
-2013
-David Crombie (en), accomplissement
-Stephanie Dixon, athlète
-2014
-Sudarshan Gautam (en), accomplissement
+Jill Taylor et Gary Taylor, achievers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Colette Bourgonje (en), athlète
+David Shannon (en), accomplissement</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Benoît Huot, athlète
+Brian McKeever et Robin McKeever, athlètes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Tracey Ferguson (en), athlète</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>David Crombie (en), accomplissement
+Stephanie Dixon, athlète</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sudarshan Gautam (en), accomplissement
 Vim Kochhar, accomplissement
-Chris Williamson, athlète
-2015
-Lauren Barwick (en), bâtisseur
-Rick Mercer, accomplissement
-2016
-Marni Abbott-Peter (en), athlète
+Chris Williamson, athlète</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Lauren Barwick (en), bâtisseur
+Rick Mercer, accomplissement</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Marni Abbott-Peter (en), athlète
 Tim Frick (en), bâtisseur
-Terry Kelly) (en), accomplissement
-2017
-Todd Nicholson (en), athlète
-2018
-Jim Kyte (en), athlète
+Terry Kelly) (en), accomplissement</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Todd Nicholson (en), athlète</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Jim Kyte (en), athlète
 Alvin Law (en), accomplissement
-Brian Mulroney, bâtisseur
-2019
-Brad Bowden (en), athlète
+Brian Mulroney, bâtisseur</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Temple_de_la_renommée_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temple_de_la_renomm%C3%A9e_de_la_Fondation_canadienne_des_personnes_ayant_un_handicap_physique</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Personnes intronisées</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Brad Bowden (en), athlète
 Richard Peter (en), athlète</t>
         </is>
       </c>
